--- a/0019-The-Sentinel-Stack/Manual Testing & Documents/Bug Report StyleMate.xlsx
+++ b/0019-The-Sentinel-Stack/Manual Testing & Documents/Bug Report StyleMate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RKC-Nagaur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manual Testing &amp; Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9F4C47-2BEC-459E-9747-079B7CE904BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D693164A-BD0A-4198-A944-EBF878F8B5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>Bug ID</t>
   </si>
@@ -256,13 +256,16 @@
   </si>
   <si>
     <t>TC_UAM_006_06_10</t>
+  </si>
+  <si>
+    <t>Test Cases Created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +316,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Berlin Sans FB"/>
       <family val="2"/>
     </font>
@@ -483,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -518,6 +528,17 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -822,16 +843,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
@@ -1099,6 +1120,32 @@
       <c r="H14" s="15" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="24">
+        <v>29</v>
+      </c>
+      <c r="C17" s="25">
+        <v>19</v>
+      </c>
+      <c r="D17" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/0019-The-Sentinel-Stack/Manual Testing & Documents/Bug Report StyleMate.xlsx
+++ b/0019-The-Sentinel-Stack/Manual Testing & Documents/Bug Report StyleMate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manual Testing &amp; Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D693164A-BD0A-4198-A944-EBF878F8B5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FB8EC3-9C1B-4BFB-897A-39586A70DCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>Bug ID</t>
   </si>
@@ -259,13 +259,19 @@
   </si>
   <si>
     <t>Test Cases Created</t>
+  </si>
+  <si>
+    <t>Exected</t>
+  </si>
+  <si>
+    <t>Skipped/Blocked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +331,13 @@
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Berlin Sans FB"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -493,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -530,7 +543,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -541,6 +553,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,29 +1141,41 @@
     </row>
     <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
+      <c r="F16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23">
         <v>29</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
+        <v>21</v>
+      </c>
+      <c r="D17" s="25">
         <v>19</v>
       </c>
-      <c r="D17" s="26">
+      <c r="E17" s="26">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/0019-The-Sentinel-Stack/Manual Testing & Documents/Bug Report StyleMate.xlsx
+++ b/0019-The-Sentinel-Stack/Manual Testing & Documents/Bug Report StyleMate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manual Testing &amp; Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FB8EC3-9C1B-4BFB-897A-39586A70DCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB64679-985C-4104-9B45-557F3C8F639B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>Bug ID</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>Skipped/Blocked</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -340,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +398,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,9 +568,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,19 +886,19 @@
     <col min="4" max="4" width="43.5703125" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" s="2" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -903,13 +915,16 @@
         <v>4</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>68</v>
       </c>
@@ -928,11 +943,14 @@
       <c r="G5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>69</v>
       </c>
@@ -951,11 +969,14 @@
       <c r="G6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>70</v>
       </c>
@@ -974,11 +995,14 @@
       <c r="G7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>71</v>
       </c>
@@ -997,11 +1021,14 @@
       <c r="G8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>72</v>
       </c>
@@ -1020,11 +1047,14 @@
       <c r="G9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>73</v>
       </c>
@@ -1043,11 +1073,14 @@
       <c r="G10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>74</v>
       </c>
@@ -1066,11 +1099,14 @@
       <c r="G11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>75</v>
       </c>
@@ -1089,11 +1125,14 @@
       <c r="G12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>76</v>
       </c>
@@ -1112,11 +1151,14 @@
       <c r="G13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>77</v>
       </c>
@@ -1135,12 +1177,15 @@
       <c r="G14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="22" t="s">
         <v>78</v>
       </c>
@@ -1156,10 +1201,10 @@
       <c r="F16" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="23">
         <v>29</v>
       </c>
@@ -1175,7 +1220,6 @@
       <c r="F17" s="23">
         <v>0</v>
       </c>
-      <c r="G17" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
